--- a/tests/data/info-arch-car-rules.xlsx
+++ b/tests/data/info-arch-car-rules.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/niva/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikola/Repos/neat/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D26FC576-6F58-764D-BC1F-BA793926893B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B490EC70-74BC-BD41-B6E7-0A6CF6807D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35020" yWindow="500" windowWidth="33780" windowHeight="28300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35020" yWindow="500" windowWidth="33780" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -137,12 +137,6 @@
     <t>Match Type</t>
   </si>
   <si>
-    <t>namespace</t>
-  </si>
-  <si>
-    <t>prefix</t>
-  </si>
-  <si>
     <t>title</t>
   </si>
   <si>
@@ -218,9 +212,6 @@
     <t>complete</t>
   </si>
   <si>
-    <t>http://purl.org/cognite/neat#</t>
-  </si>
-  <si>
     <t>neat</t>
   </si>
   <si>
@@ -259,12 +250,21 @@
   <si>
     <t>string</t>
   </si>
+  <si>
+    <t>space</t>
+  </si>
+  <si>
+    <t>external_id</t>
+  </si>
+  <si>
+    <t>carDataModel</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -346,14 +346,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -393,11 +385,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -431,12 +422,10 @@
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -659,8 +648,8 @@
   </sheetPr>
   <dimension ref="A1:S1000"/>
   <sheetViews>
-    <sheetView zoomScale="172" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScale="172" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -678,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C1" s="4"/>
     </row>
@@ -687,7 +676,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C2" s="4"/>
     </row>
@@ -696,7 +685,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="1"/>
@@ -716,10 +705,10 @@
     </row>
     <row r="4" spans="1:19" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>49</v>
+      <c r="B4" s="16" t="s">
+        <v>47</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="1"/>
@@ -739,10 +728,10 @@
     </row>
     <row r="5" spans="1:19" ht="15.75" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="1"/>
@@ -765,7 +754,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="1"/>
@@ -787,9 +776,9 @@
       <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="17">
         <f ca="1">NOW()</f>
-        <v>45453.602711921296</v>
+        <v>45614.574381481485</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="1"/>
@@ -811,9 +800,9 @@
       <c r="A8" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="17">
         <f ca="1">NOW()</f>
-        <v>45453.602711921296</v>
+        <v>45614.574381481485</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="1"/>
@@ -833,10 +822,10 @@
     </row>
     <row r="9" spans="1:19" ht="15.75" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="1"/>
@@ -876,7 +865,7 @@
     </row>
     <row r="11" spans="1:19" ht="15.75" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="1"/>
@@ -896,7 +885,7 @@
     </row>
     <row r="12" spans="1:19" ht="15.75" customHeight="1">
       <c r="A12" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="1"/>
@@ -7417,9 +7406,6 @@
       <c r="C1000" s="14"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" xr:uid="{0ACB5A10-BD6E-4D45-A3D8-F0A6F528EFAB}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -7445,19 +7431,19 @@
   <sheetData>
     <row r="1" spans="1:24" ht="32">
       <c r="A1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>19</v>
@@ -7492,7 +7478,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>12</v>
@@ -7503,18 +7489,18 @@
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:24">
-      <c r="A3" s="19" t="s">
-        <v>54</v>
+      <c r="A3" s="18" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:24">
       <c r="A4" s="9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:24">
       <c r="A5" s="9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -7530,7 +7516,7 @@
   </sheetPr>
   <dimension ref="A1:R928"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="119" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F6" sqref="F6:G7"/>
     </sheetView>
   </sheetViews>
@@ -7563,28 +7549,28 @@
         <v>17</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K1" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="17.25" customHeight="1">
@@ -7604,19 +7590,19 @@
         <v>6</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>7</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K2" s="8" t="s">
         <v>12</v>
@@ -7633,14 +7619,14 @@
     </row>
     <row r="3" spans="1:18" ht="15.75" customHeight="1">
       <c r="A3" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="18" t="s">
         <v>54</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>57</v>
       </c>
       <c r="C3" s="11"/>
       <c r="E3" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
@@ -7651,14 +7637,14 @@
     </row>
     <row r="4" spans="1:18" ht="15.75" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>58</v>
+      <c r="B4" s="18" t="s">
+        <v>55</v>
       </c>
       <c r="C4" s="11"/>
       <c r="E4" s="12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F4" s="12">
         <v>1</v>
@@ -7673,14 +7659,14 @@
     </row>
     <row r="5" spans="1:18" ht="15.75" customHeight="1">
       <c r="A5" s="9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>59</v>
+      <c r="B5" s="18" t="s">
+        <v>56</v>
       </c>
       <c r="C5" s="11"/>
       <c r="E5" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F5" s="12">
         <v>1</v>
@@ -7692,15 +7678,15 @@
       <c r="K5" s="12"/>
     </row>
     <row r="6" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A6" s="19" t="s">
-        <v>55</v>
+      <c r="A6" s="18" t="s">
+        <v>52</v>
       </c>
-      <c r="B6" s="19" t="s">
-        <v>60</v>
+      <c r="B6" s="18" t="s">
+        <v>57</v>
       </c>
       <c r="C6" s="11"/>
       <c r="E6" s="12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F6" s="12">
         <v>1</v>
@@ -7714,15 +7700,15 @@
       <c r="K6" s="12"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A7" s="19" t="s">
-        <v>56</v>
+      <c r="A7" s="18" t="s">
+        <v>53</v>
       </c>
-      <c r="B7" s="19" t="s">
-        <v>60</v>
+      <c r="B7" s="18" t="s">
+        <v>57</v>
       </c>
       <c r="C7" s="11"/>
       <c r="E7" s="12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F7" s="12">
         <v>1</v>
@@ -16969,10 +16955,10 @@
   <sheetData>
     <row r="1" spans="1:21" ht="57" customHeight="1">
       <c r="A1" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -16996,10 +16982,10 @@
     </row>
     <row r="2" spans="1:21" ht="17.25" customHeight="1">
       <c r="A2" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>

--- a/tests/data/info-arch-car-rules.xlsx
+++ b/tests/data/info-arch-car-rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikola/Repos/neat/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B490EC70-74BC-BD41-B6E7-0A6CF6807D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF99E60A-927C-9F4F-A770-B720DE9AA181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35020" yWindow="500" windowWidth="33780" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="59">
   <si>
     <t>role</t>
   </si>
@@ -104,9 +104,6 @@
     <t>created</t>
   </si>
   <si>
-    <t>description</t>
-  </si>
-  <si>
     <t>Reference</t>
   </si>
   <si>
@@ -135,15 +132,6 @@
   </si>
   <si>
     <t>Match Type</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>license</t>
-  </si>
-  <si>
-    <t>rights</t>
   </si>
   <si>
     <t>Parent Class</t>
@@ -646,10 +634,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:S1000"/>
+  <dimension ref="A1:S997"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="172" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -667,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C1" s="4"/>
     </row>
@@ -676,7 +664,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C2" s="4"/>
     </row>
@@ -685,7 +673,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="1"/>
@@ -705,10 +693,10 @@
     </row>
     <row r="4" spans="1:19" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="1"/>
@@ -728,10 +716,10 @@
     </row>
     <row r="5" spans="1:19" ht="15.75" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="1"/>
@@ -754,7 +742,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="1"/>
@@ -778,7 +766,7 @@
       </c>
       <c r="B7" s="17">
         <f ca="1">NOW()</f>
-        <v>45614.574381481485</v>
+        <v>45614.612227314814</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="1"/>
@@ -802,7 +790,7 @@
       </c>
       <c r="B8" s="17">
         <f ca="1">NOW()</f>
-        <v>45614.574381481485</v>
+        <v>45614.612227314814</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="1"/>
@@ -822,10 +810,10 @@
     </row>
     <row r="9" spans="1:19" ht="15.75" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="1"/>
@@ -844,10 +832,8 @@
       <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="4"/>
+      <c r="A10" s="1"/>
+      <c r="C10" s="13"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -862,12 +848,12 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
     </row>
     <row r="11" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="4"/>
+      <c r="A11" s="1"/>
+      <c r="C11" s="13"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -882,12 +868,12 @@
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
     </row>
     <row r="12" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A12" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="4"/>
+      <c r="A12" s="1"/>
+      <c r="C12" s="13"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -5006,64 +4992,13 @@
       <c r="S217" s="1"/>
     </row>
     <row r="218" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A218" s="1"/>
-      <c r="C218" s="13"/>
-      <c r="D218" s="1"/>
-      <c r="E218" s="1"/>
-      <c r="F218" s="1"/>
-      <c r="G218" s="1"/>
-      <c r="H218" s="1"/>
-      <c r="I218" s="1"/>
-      <c r="J218" s="1"/>
-      <c r="K218" s="1"/>
-      <c r="L218" s="1"/>
-      <c r="M218" s="1"/>
-      <c r="N218" s="1"/>
-      <c r="O218" s="1"/>
-      <c r="P218" s="1"/>
-      <c r="Q218" s="1"/>
-      <c r="R218" s="1"/>
-      <c r="S218" s="1"/>
+      <c r="C218" s="14"/>
     </row>
     <row r="219" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A219" s="1"/>
-      <c r="C219" s="13"/>
-      <c r="D219" s="1"/>
-      <c r="E219" s="1"/>
-      <c r="F219" s="1"/>
-      <c r="G219" s="1"/>
-      <c r="H219" s="1"/>
-      <c r="I219" s="1"/>
-      <c r="J219" s="1"/>
-      <c r="K219" s="1"/>
-      <c r="L219" s="1"/>
-      <c r="M219" s="1"/>
-      <c r="N219" s="1"/>
-      <c r="O219" s="1"/>
-      <c r="P219" s="1"/>
-      <c r="Q219" s="1"/>
-      <c r="R219" s="1"/>
-      <c r="S219" s="1"/>
+      <c r="C219" s="14"/>
     </row>
     <row r="220" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A220" s="1"/>
-      <c r="C220" s="13"/>
-      <c r="D220" s="1"/>
-      <c r="E220" s="1"/>
-      <c r="F220" s="1"/>
-      <c r="G220" s="1"/>
-      <c r="H220" s="1"/>
-      <c r="I220" s="1"/>
-      <c r="J220" s="1"/>
-      <c r="K220" s="1"/>
-      <c r="L220" s="1"/>
-      <c r="M220" s="1"/>
-      <c r="N220" s="1"/>
-      <c r="O220" s="1"/>
-      <c r="P220" s="1"/>
-      <c r="Q220" s="1"/>
-      <c r="R220" s="1"/>
-      <c r="S220" s="1"/>
+      <c r="C220" s="14"/>
     </row>
     <row r="221" spans="1:19" ht="15.75" customHeight="1">
       <c r="C221" s="14"/>
@@ -7395,15 +7330,6 @@
     </row>
     <row r="997" spans="3:3" ht="15.75" customHeight="1">
       <c r="C997" s="14"/>
-    </row>
-    <row r="998" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C998" s="14"/>
-    </row>
-    <row r="999" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C999" s="14"/>
-    </row>
-    <row r="1000" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C1000" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -7431,22 +7357,22 @@
   <sheetData>
     <row r="1" spans="1:24" ht="32">
       <c r="A1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>30</v>
-      </c>
       <c r="F1" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -7472,35 +7398,35 @@
         <v>3</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" s="18" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:24">
       <c r="A4" s="9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:24">
       <c r="A5" s="9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -7537,40 +7463,40 @@
   <sheetData>
     <row r="1" spans="1:18" s="10" customFormat="1" ht="78" customHeight="1">
       <c r="A1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="K1" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="17.25" customHeight="1">
@@ -7581,7 +7507,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>5</v>
@@ -7590,25 +7516,25 @@
         <v>6</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>7</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -7619,14 +7545,14 @@
     </row>
     <row r="3" spans="1:18" ht="15.75" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C3" s="11"/>
       <c r="E3" s="12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
@@ -7637,14 +7563,14 @@
     </row>
     <row r="4" spans="1:18" ht="15.75" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C4" s="11"/>
       <c r="E4" s="12" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F4" s="12">
         <v>1</v>
@@ -7659,14 +7585,14 @@
     </row>
     <row r="5" spans="1:18" ht="15.75" customHeight="1">
       <c r="A5" s="9" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C5" s="11"/>
       <c r="E5" s="12" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F5" s="12">
         <v>1</v>
@@ -7679,14 +7605,14 @@
     </row>
     <row r="6" spans="1:18" ht="15.75" customHeight="1">
       <c r="A6" s="18" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C6" s="11"/>
       <c r="E6" s="12" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F6" s="12">
         <v>1</v>
@@ -7701,14 +7627,14 @@
     </row>
     <row r="7" spans="1:18" ht="15.75" customHeight="1">
       <c r="A7" s="18" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C7" s="11"/>
       <c r="E7" s="12" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F7" s="12">
         <v>1</v>
@@ -16955,10 +16881,10 @@
   <sheetData>
     <row r="1" spans="1:21" ht="57" customHeight="1">
       <c r="A1" s="7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -16982,10 +16908,10 @@
     </row>
     <row r="2" spans="1:21" ht="17.25" customHeight="1">
       <c r="A2" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>

--- a/tests/data/info-arch-car-rules.xlsx
+++ b/tests/data/info-arch-car-rules.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/niva/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikola/Repos/neat/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D26FC576-6F58-764D-BC1F-BA793926893B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF99E60A-927C-9F4F-A770-B720DE9AA181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35020" yWindow="500" windowWidth="33780" windowHeight="28300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35020" yWindow="500" windowWidth="33780" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="59">
   <si>
     <t>role</t>
   </si>
@@ -104,9 +104,6 @@
     <t>created</t>
   </si>
   <si>
-    <t>description</t>
-  </si>
-  <si>
     <t>Reference</t>
   </si>
   <si>
@@ -135,21 +132,6 @@
   </si>
   <si>
     <t>Match Type</t>
-  </si>
-  <si>
-    <t>namespace</t>
-  </si>
-  <si>
-    <t>prefix</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>license</t>
-  </si>
-  <si>
-    <t>rights</t>
   </si>
   <si>
     <t>Parent Class</t>
@@ -218,9 +200,6 @@
     <t>complete</t>
   </si>
   <si>
-    <t>http://purl.org/cognite/neat#</t>
-  </si>
-  <si>
     <t>neat</t>
   </si>
   <si>
@@ -259,12 +238,21 @@
   <si>
     <t>string</t>
   </si>
+  <si>
+    <t>space</t>
+  </si>
+  <si>
+    <t>external_id</t>
+  </si>
+  <si>
+    <t>carDataModel</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -346,14 +334,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -393,11 +373,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -431,12 +410,10 @@
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -657,10 +634,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:S1000"/>
+  <dimension ref="A1:S997"/>
   <sheetViews>
-    <sheetView zoomScale="172" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScale="172" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -678,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C1" s="4"/>
     </row>
@@ -687,7 +664,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C2" s="4"/>
     </row>
@@ -696,7 +673,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="1"/>
@@ -716,10 +693,10 @@
     </row>
     <row r="4" spans="1:19" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>49</v>
+      <c r="B4" s="16" t="s">
+        <v>43</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="1"/>
@@ -739,10 +716,10 @@
     </row>
     <row r="5" spans="1:19" ht="15.75" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="1"/>
@@ -765,7 +742,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="1"/>
@@ -787,9 +764,9 @@
       <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="17">
         <f ca="1">NOW()</f>
-        <v>45453.602711921296</v>
+        <v>45614.612227314814</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="1"/>
@@ -811,9 +788,9 @@
       <c r="A8" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="17">
         <f ca="1">NOW()</f>
-        <v>45453.602711921296</v>
+        <v>45614.612227314814</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="1"/>
@@ -833,10 +810,10 @@
     </row>
     <row r="9" spans="1:19" ht="15.75" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="1"/>
@@ -855,10 +832,8 @@
       <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="4"/>
+      <c r="A10" s="1"/>
+      <c r="C10" s="13"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -873,12 +848,12 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
     </row>
     <row r="11" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A11" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="4"/>
+      <c r="A11" s="1"/>
+      <c r="C11" s="13"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -893,12 +868,12 @@
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
     </row>
     <row r="12" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A12" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="4"/>
+      <c r="A12" s="1"/>
+      <c r="C12" s="13"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -5017,64 +4992,13 @@
       <c r="S217" s="1"/>
     </row>
     <row r="218" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A218" s="1"/>
-      <c r="C218" s="13"/>
-      <c r="D218" s="1"/>
-      <c r="E218" s="1"/>
-      <c r="F218" s="1"/>
-      <c r="G218" s="1"/>
-      <c r="H218" s="1"/>
-      <c r="I218" s="1"/>
-      <c r="J218" s="1"/>
-      <c r="K218" s="1"/>
-      <c r="L218" s="1"/>
-      <c r="M218" s="1"/>
-      <c r="N218" s="1"/>
-      <c r="O218" s="1"/>
-      <c r="P218" s="1"/>
-      <c r="Q218" s="1"/>
-      <c r="R218" s="1"/>
-      <c r="S218" s="1"/>
+      <c r="C218" s="14"/>
     </row>
     <row r="219" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A219" s="1"/>
-      <c r="C219" s="13"/>
-      <c r="D219" s="1"/>
-      <c r="E219" s="1"/>
-      <c r="F219" s="1"/>
-      <c r="G219" s="1"/>
-      <c r="H219" s="1"/>
-      <c r="I219" s="1"/>
-      <c r="J219" s="1"/>
-      <c r="K219" s="1"/>
-      <c r="L219" s="1"/>
-      <c r="M219" s="1"/>
-      <c r="N219" s="1"/>
-      <c r="O219" s="1"/>
-      <c r="P219" s="1"/>
-      <c r="Q219" s="1"/>
-      <c r="R219" s="1"/>
-      <c r="S219" s="1"/>
+      <c r="C219" s="14"/>
     </row>
     <row r="220" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A220" s="1"/>
-      <c r="C220" s="13"/>
-      <c r="D220" s="1"/>
-      <c r="E220" s="1"/>
-      <c r="F220" s="1"/>
-      <c r="G220" s="1"/>
-      <c r="H220" s="1"/>
-      <c r="I220" s="1"/>
-      <c r="J220" s="1"/>
-      <c r="K220" s="1"/>
-      <c r="L220" s="1"/>
-      <c r="M220" s="1"/>
-      <c r="N220" s="1"/>
-      <c r="O220" s="1"/>
-      <c r="P220" s="1"/>
-      <c r="Q220" s="1"/>
-      <c r="R220" s="1"/>
-      <c r="S220" s="1"/>
+      <c r="C220" s="14"/>
     </row>
     <row r="221" spans="1:19" ht="15.75" customHeight="1">
       <c r="C221" s="14"/>
@@ -7407,19 +7331,7 @@
     <row r="997" spans="3:3" ht="15.75" customHeight="1">
       <c r="C997" s="14"/>
     </row>
-    <row r="998" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C998" s="14"/>
-    </row>
-    <row r="999" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C999" s="14"/>
-    </row>
-    <row r="1000" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C1000" s="14"/>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" xr:uid="{0ACB5A10-BD6E-4D45-A3D8-F0A6F528EFAB}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -7445,22 +7357,22 @@
   <sheetData>
     <row r="1" spans="1:24" ht="32">
       <c r="A1" s="6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -7486,35 +7398,35 @@
         <v>3</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:24">
-      <c r="A3" s="19" t="s">
-        <v>54</v>
+      <c r="A3" s="18" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:24">
       <c r="A4" s="9" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:24">
       <c r="A5" s="9" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -7530,7 +7442,7 @@
   </sheetPr>
   <dimension ref="A1:R928"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="119" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F6" sqref="F6:G7"/>
     </sheetView>
   </sheetViews>
@@ -7551,40 +7463,40 @@
   <sheetData>
     <row r="1" spans="1:18" s="10" customFormat="1" ht="78" customHeight="1">
       <c r="A1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="I1" s="7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="17.25" customHeight="1">
@@ -7595,7 +7507,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>5</v>
@@ -7604,25 +7516,25 @@
         <v>6</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>7</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -7633,14 +7545,14 @@
     </row>
     <row r="3" spans="1:18" ht="15.75" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
-      <c r="B3" s="19" t="s">
-        <v>57</v>
+      <c r="B3" s="18" t="s">
+        <v>50</v>
       </c>
       <c r="C3" s="11"/>
       <c r="E3" s="12" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
@@ -7651,14 +7563,14 @@
     </row>
     <row r="4" spans="1:18" ht="15.75" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>58</v>
+      <c r="B4" s="18" t="s">
+        <v>51</v>
       </c>
       <c r="C4" s="11"/>
       <c r="E4" s="12" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F4" s="12">
         <v>1</v>
@@ -7673,14 +7585,14 @@
     </row>
     <row r="5" spans="1:18" ht="15.75" customHeight="1">
       <c r="A5" s="9" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>59</v>
+      <c r="B5" s="18" t="s">
+        <v>52</v>
       </c>
       <c r="C5" s="11"/>
       <c r="E5" s="12" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F5" s="12">
         <v>1</v>
@@ -7692,15 +7604,15 @@
       <c r="K5" s="12"/>
     </row>
     <row r="6" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A6" s="19" t="s">
-        <v>55</v>
+      <c r="A6" s="18" t="s">
+        <v>48</v>
       </c>
-      <c r="B6" s="19" t="s">
-        <v>60</v>
+      <c r="B6" s="18" t="s">
+        <v>53</v>
       </c>
       <c r="C6" s="11"/>
       <c r="E6" s="12" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F6" s="12">
         <v>1</v>
@@ -7714,15 +7626,15 @@
       <c r="K6" s="12"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A7" s="19" t="s">
-        <v>56</v>
+      <c r="A7" s="18" t="s">
+        <v>49</v>
       </c>
-      <c r="B7" s="19" t="s">
-        <v>60</v>
+      <c r="B7" s="18" t="s">
+        <v>53</v>
       </c>
       <c r="C7" s="11"/>
       <c r="E7" s="12" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F7" s="12">
         <v>1</v>
@@ -16969,10 +16881,10 @@
   <sheetData>
     <row r="1" spans="1:21" ht="57" customHeight="1">
       <c r="A1" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -16996,10 +16908,10 @@
     </row>
     <row r="2" spans="1:21" ht="17.25" customHeight="1">
       <c r="A2" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
